--- a/Global_Population_Trends_2016-2022.xlsx
+++ b/Global_Population_Trends_2016-2022.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>36,686,784</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>37,769,499</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>38,972,230</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>40,099,462</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,866,376</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,854,191</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,837,849</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,811,666</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>41,927,007</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>42,705,368</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>43,451,666</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>44,177,969</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>48,424</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>47,321</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>46,189</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>45,035</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>75,013</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>76,343</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>77,700</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>79,034</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>31,273,533</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32,353,588</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>33,428,486</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>34,503,774</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>91,626</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>92,117</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>92,664</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>93,219</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>44,494,502</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>44,938,712</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>45,376,763</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>45,808,747</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,836,557</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,820,602</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,805,608</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,790,974</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>105,962</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>106,442</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>106,585</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>106,537</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>24,966,643</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>25,340,217</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>25,655,289</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>25,688,079</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8,840,521</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8,879,920</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8,916,864</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8,955,797</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,939,771</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,024,283</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,093,121</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,137,750</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>401,906</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>404,557</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>406,471</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>407,906</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,487,340</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,494,188</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,477,469</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4538,7 +4538,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,463,265</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>163,683,958</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>165,516,222</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>167,420,951</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>169,356,251</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>279,688</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>280,180</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>280,693</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>281,200</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,438,785</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,419,758</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,379,952</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,302,585</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,427,054</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,488,980</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,538,604</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,592,952</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>382,066</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>389,095</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>394,921</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>400,031</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,940,683</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>12,290,444</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>12,643,123</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>12,996,895</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>63,918</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -6386,7 +6386,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>63,911</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>63,893</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>63,764</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -6554,7 +6554,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>762,096</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>767,459</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>772,506</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -6778,7 +6778,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>777,486</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -6890,7 +6890,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,606,905</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -6946,7 +6946,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,777,315</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -7002,7 +7002,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,936,162</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>12,079,472</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,400,129</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -7226,7 +7226,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,360,711</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -7282,7 +7282,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,318,407</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,270,943</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -7394,7 +7394,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -7450,7 +7450,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,451,409</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,499,702</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -7562,7 +7562,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,546,402</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -7618,7 +7618,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,588,423</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -7730,7 +7730,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>210,166,592</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>211,782,878</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -7842,7 +7842,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>213,196,304</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -7898,7 +7898,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>214,326,223</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -7954,7 +7954,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -8010,7 +8010,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>30,335</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>30,610</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -8122,7 +8122,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>30,910</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>31,122</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -8234,7 +8234,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -8290,7 +8290,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>434,274</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -8346,7 +8346,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>438,048</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -8402,7 +8402,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>441,725</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -8458,7 +8458,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>445,373</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -8514,7 +8514,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -8570,7 +8570,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>7,025,037</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -8626,7 +8626,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,975,761</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,934,015</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,877,743</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -8794,7 +8794,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -8850,7 +8850,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>20,392,723</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>20,951,639</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -8962,7 +8962,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>21,522,626</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>22,100,683</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -9074,7 +9074,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,493,472</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -9186,7 +9186,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,874,838</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -9242,7 +9242,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>12,220,227</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -9298,7 +9298,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>12,551,213</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -9354,7 +9354,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -9410,7 +9410,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>571,202</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -9466,7 +9466,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>577,030</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -9522,7 +9522,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>582,640</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>587,925</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -9634,7 +9634,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>16,025,238</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -9746,7 +9746,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>16,207,746</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -9802,7 +9802,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>16,396,860</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -9858,7 +9858,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>16,589,023</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -9914,7 +9914,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -9970,7 +9970,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>25,076,747</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>25,782,341</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -10082,7 +10082,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>26,491,087</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -10138,7 +10138,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>27,198,628</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -10194,7 +10194,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -10250,7 +10250,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>37,065,084</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -10306,7 +10306,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>37,601,230</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -10362,7 +10362,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>38,007,166</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -10418,7 +10418,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>38,226,498</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -10474,7 +10474,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>64,884</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -10530,7 +10530,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>66,134</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -10586,7 +10586,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>67,311</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -10642,7 +10642,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>68,136</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -10698,7 +10698,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -10754,7 +10754,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,094,780</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -10810,7 +10810,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,209,324</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,343,020</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,457,154</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -10978,7 +10978,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -11034,7 +11034,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>15,604,210</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -11090,7 +11090,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>16,126,866</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -11146,7 +11146,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>16,644,701</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -11202,7 +11202,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>17,179,740</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -11258,7 +11258,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>167,259</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -11314,7 +11314,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>169,410</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -11370,7 +11370,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>171,113</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -11426,7 +11426,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>172,683</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -11482,7 +11482,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -11538,7 +11538,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>18,701,450</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -11594,7 +11594,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>19,039,485</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -11650,7 +11650,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>19,300,315</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -11706,7 +11706,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>19,493,184</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -11762,7 +11762,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -11818,7 +11818,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,402,760,000</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,407,745,000</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -11930,7 +11930,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,411,100,000</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -11986,7 +11986,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,412,360,000</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -12042,7 +12042,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -12098,7 +12098,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>49,276,961</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -12154,7 +12154,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>50,187,406</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -12210,7 +12210,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>50,930,662</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -12266,7 +12266,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>51,516,562</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -12322,7 +12322,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -12378,7 +12378,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>776,313</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -12434,7 +12434,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>790,986</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -12490,7 +12490,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>806,166</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>821,625</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -12602,7 +12602,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -12658,7 +12658,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,040,734</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -12714,7 +12714,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,084,532</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -12770,7 +12770,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,123,105</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -12826,7 +12826,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,153,957</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -12882,7 +12882,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -12938,7 +12938,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,087,843</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -12994,7 +12994,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,065,253</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -13050,7 +13050,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,047,680</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -13106,7 +13106,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,879,000</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -13162,7 +13162,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -13218,7 +13218,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,328,244</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -13274,7 +13274,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,316,697</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -13330,7 +13330,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,300,698</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -13386,7 +13386,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,256,372</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -13442,7 +13442,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -13498,7 +13498,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>159,336</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -13554,7 +13554,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>157,441</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -13610,7 +13610,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>154,947</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -13666,7 +13666,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>152,369</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -13722,7 +13722,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -13778,7 +13778,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,218,831</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -13834,7 +13834,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,228,836</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -13890,7 +13890,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,237,537</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -13946,7 +13946,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,244,188</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -14002,7 +14002,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -14058,7 +14058,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,629,928</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -14114,7 +14114,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,671,870</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -14170,7 +14170,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,697,858</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,505,772</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -14282,7 +14282,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -14338,7 +14338,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>87,087,355</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -14394,7 +14394,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>89,906,890</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -14450,7 +14450,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>92,853,164</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -14506,7 +14506,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>95,894,118</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -14562,7 +14562,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,793,636</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -14674,7 +14674,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,814,422</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,831,404</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -14786,7 +14786,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,856,733</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -14842,7 +14842,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -14898,7 +14898,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,057,198</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -14954,7 +14954,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,073,994</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -15010,7 +15010,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,090,156</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -15066,7 +15066,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,105,557</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -15122,7 +15122,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>70,823</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -15234,7 +15234,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>71,428</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -15290,7 +15290,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>71,995</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -15346,7 +15346,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>72,412</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -15402,7 +15402,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -15458,7 +15458,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,765,531</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -15514,7 +15514,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,881,882</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -15570,7 +15570,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,999,664</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -15626,7 +15626,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,117,873</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -15738,7 +15738,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>17,015,672</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -15794,7 +15794,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>17,343,740</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -15850,7 +15850,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>17,588,595</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -15906,7 +15906,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>17,797,737</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -15962,7 +15962,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -16018,7 +16018,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>103,740,765</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -16074,7 +16074,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>105,618,671</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -16130,7 +16130,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>107,465,134</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -16186,7 +16186,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>109,262,178</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -16242,7 +16242,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -16298,7 +16298,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,276,342</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -16354,7 +16354,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,280,217</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -16410,7 +16410,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,292,731</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -16466,7 +16466,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,314,167</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -16522,7 +16522,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -16578,7 +16578,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,502,091</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,553,031</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -16690,7 +16690,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,596,049</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -16746,7 +16746,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,634,466</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -16802,7 +16802,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -16858,7 +16858,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,445,374</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -16914,7 +16914,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,498,818</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -16970,7 +16970,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,555,868</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -17026,7 +17026,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,620,312</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -17082,7 +17082,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -17138,7 +17138,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,321,977</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -17194,7 +17194,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,326,898</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -17250,7 +17250,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,329,522</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -17306,7 +17306,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,330,932</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -17362,7 +17362,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -17418,7 +17418,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,160,428</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -17474,7 +17474,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,169,613</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -17530,7 +17530,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,180,655</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -17586,7 +17586,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,192,271</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -17642,7 +17642,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -17698,7 +17698,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>111,129,438</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -17754,7 +17754,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>114,120,594</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -17810,7 +17810,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>117,190,911</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -17866,7 +17866,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>120,283,026</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -17922,7 +17922,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -17978,7 +17978,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>50,955</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -18034,7 +18034,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>51,681</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -18090,7 +18090,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>52,415</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -18146,7 +18146,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>52,889</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -18202,7 +18202,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -18258,7 +18258,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>918,996</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -18314,7 +18314,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>918,465</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -18370,7 +18370,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>920,422</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -18426,7 +18426,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>924,610</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -18482,7 +18482,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,515,525</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -18594,7 +18594,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,521,606</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -18650,7 +18650,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,529,543</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -18706,7 +18706,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,541,017</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -18762,7 +18762,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -18818,7 +18818,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>67,158,348</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -18874,7 +18874,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>67,388,001</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -18930,7 +18930,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>67,571,107</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -18986,7 +18986,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>67,749,632</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -19042,7 +19042,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -19098,7 +19098,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>297,606</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -19154,7 +19154,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>299,717</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -19210,7 +19210,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>301,920</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -19266,7 +19266,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>304,032</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -19322,7 +19322,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -19378,7 +19378,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,192,012</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -19434,7 +19434,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,242,785</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -19490,7 +19490,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,292,573</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -19546,7 +19546,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,341,179</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -19602,7 +19602,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -19658,7 +19658,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,444,916</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -19714,7 +19714,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,508,883</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -19770,7 +19770,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,573,995</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -19826,7 +19826,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,639,916</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -19882,7 +19882,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -19938,7 +19938,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,726,549</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -19994,7 +19994,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,720,161</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -20050,7 +20050,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,722,716</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -20106,7 +20106,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,708,610</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -20162,7 +20162,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -20218,7 +20218,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>82,905,782</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -20274,7 +20274,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>83,092,962</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -20330,7 +20330,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>83,160,871</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -20386,7 +20386,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>83,196,078</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -20442,7 +20442,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -20498,7 +20498,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>30,870,641</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -20554,7 +20554,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>31,522,290</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -20610,7 +20610,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32,180,401</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -20666,7 +20666,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32,833,031</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -20722,7 +20722,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -20778,7 +20778,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32,648</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -20834,7 +20834,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32,685</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -20890,7 +20890,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32,709</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -20946,7 +20946,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32,669</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -21002,7 +21002,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -21058,7 +21058,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,732,882</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -21114,7 +21114,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,721,582</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -21170,7 +21170,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,698,599</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -21226,7 +21226,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,641,221</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -21282,7 +21282,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -21338,7 +21338,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>56,023</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -21394,7 +21394,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>56,225</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -21450,7 +21450,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>56,367</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -21506,7 +21506,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>56,653</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -21562,7 +21562,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -21618,7 +21618,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>121,838</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -21674,7 +21674,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>122,724</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -21730,7 +21730,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>123,663</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -21786,7 +21786,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>124,610</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -21842,7 +21842,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -21898,7 +21898,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>168,678</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -21954,7 +21954,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>168,624</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -22010,7 +22010,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>169,231</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -22066,7 +22066,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>170,534</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -22122,7 +22122,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -22178,7 +22178,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>16,346,950</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -22234,7 +22234,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>16,604,026</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -22290,7 +22290,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>16,858,333</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -22346,7 +22346,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>17,109,746</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -22402,7 +22402,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -22458,7 +22458,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>12,554,864</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -22514,7 +22514,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>12,877,539</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -22570,7 +22570,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>13,205,153</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -22626,7 +22626,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>13,531,906</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -22682,7 +22682,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -22738,7 +22738,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,924,955</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -22794,7 +22794,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,970,457</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -22850,7 +22850,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,015,828</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -22906,7 +22906,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,060,721</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -22962,7 +22962,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -23018,7 +23018,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>785,514</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -23074,7 +23074,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>798,753</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -23130,7 +23130,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>797,202</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -23186,7 +23186,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>804,567</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -23242,7 +23242,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -23298,7 +23298,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,012,421</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -23354,7 +23354,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,160,438</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -23410,7 +23410,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,306,801</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -23466,7 +23466,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,447,569</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -23522,7 +23522,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -23578,7 +23578,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,792,850</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -23634,7 +23634,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,958,829</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -23690,7 +23690,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,121,763</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -23746,7 +23746,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,278,345</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -23802,7 +23802,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -23858,7 +23858,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>7,452,600</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -23914,7 +23914,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>7,507,900</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -23970,7 +23970,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>7,481,000</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -24026,7 +24026,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>7,413,100</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -24082,7 +24082,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -24138,7 +24138,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,775,564</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -24194,7 +24194,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,771,141</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -24250,7 +24250,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,750,149</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -24306,7 +24306,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,709,891</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -24362,7 +24362,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -24418,7 +24418,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>352,721</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -24474,7 +24474,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>360,563</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -24530,7 +24530,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>366,463</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -24586,7 +24586,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>372,520</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -24642,7 +24642,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -24698,7 +24698,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,369,003,306</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -24754,7 +24754,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,383,112,050</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -24810,7 +24810,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,396,387,127</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -24866,7 +24866,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,407,563,842</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -24922,7 +24922,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -24978,7 +24978,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>267,066,843</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -25034,7 +25034,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>269,582,878</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -25090,7 +25090,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>271,857,970</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -25146,7 +25146,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>273,753,191</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -25202,7 +25202,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -25258,7 +25258,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>85,617,562</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -25314,7 +25314,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>86,564,202</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -25370,7 +25370,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>87,290,193</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -25426,7 +25426,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>87,923,432</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -25482,7 +25482,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -25538,7 +25538,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>40,590,700</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -25594,7 +25594,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>41,563,520</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -25650,7 +25650,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>42,556,984</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -25706,7 +25706,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>43,533,592</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -25762,7 +25762,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -25818,7 +25818,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,867,316</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -25874,7 +25874,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,934,340</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -25930,7 +25930,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,985,382</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -25986,7 +25986,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,033,165</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -26042,7 +26042,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -26098,7 +26098,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>83,775</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -26154,7 +26154,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>83,933</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -26210,7 +26210,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>84,046</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -26266,7 +26266,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>84,263</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -26322,7 +26322,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -26378,7 +26378,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8,882,800</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -26434,7 +26434,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,054,000</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -26490,7 +26490,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,215,100</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -26546,7 +26546,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,364,700</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -26602,7 +26602,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -26658,7 +26658,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>60,421,760</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -26714,7 +26714,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>59,729,081</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -26770,7 +26770,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>59,438,851</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -26826,7 +26826,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>59,109,668</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -26882,7 +26882,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -26938,7 +26938,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,811,835</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -26994,7 +26994,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,813,773</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -27050,7 +27050,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,820,436</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -27106,7 +27106,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,827,695</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -27162,7 +27162,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -27218,7 +27218,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>126,811,000</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -27274,7 +27274,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>126,633,000</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -27330,7 +27330,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>126,261,000</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -27386,7 +27386,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>125,681,593</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -27442,7 +27442,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -27498,7 +27498,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,459,865</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -27554,7 +27554,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,698,683</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -27610,7 +27610,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,928,721</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -27666,7 +27666,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,148,278</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -27722,7 +27722,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -27778,7 +27778,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>18,276,452</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -27834,7 +27834,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>18,513,673</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -27890,7 +27890,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>18,755,666</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -27946,7 +27946,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>19,000,988</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -28002,7 +28002,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -28058,7 +28058,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>49,953,304</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -28114,7 +28114,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>50,951,450</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -28170,7 +28170,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>51,985,780</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -28226,7 +28226,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>53,005,614</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -28282,7 +28282,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -28338,7 +28338,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>122,261</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -28394,7 +28394,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>124,241</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -28450,7 +28450,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>126,463</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -28506,7 +28506,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>128,874</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -28562,7 +28562,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -28618,7 +28618,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,797,085</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -28674,7 +28674,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,788,878</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -28730,7 +28730,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,790,133</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -28786,7 +28786,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,786,038</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -28842,7 +28842,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -28898,7 +28898,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,317,185</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -28954,7 +28954,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,441,100</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -29010,7 +29010,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,360,444</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -29066,7 +29066,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,250,114</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -29122,7 +29122,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -29178,7 +29178,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,322,800</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -29234,7 +29234,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,456,200</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -29290,7 +29290,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,579,900</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -29346,7 +29346,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,691,800</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -29402,7 +29402,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -29458,7 +29458,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>7,105,006</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -29514,7 +29514,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>7,212,053</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -29570,7 +29570,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>7,319,399</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -29626,7 +29626,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>7,425,057</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -29682,7 +29682,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -29738,7 +29738,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,927,174</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -29794,7 +29794,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,913,822</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -29850,7 +29850,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,900,449</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -29906,7 +29906,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,884,490</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -29962,7 +29962,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -30018,7 +30018,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,950,839</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -30074,7 +30074,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,781,907</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -30130,7 +30130,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,662,923</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -30186,7 +30186,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,592,631</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -30242,7 +30242,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -30298,7 +30298,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,198,017</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -30354,7 +30354,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,225,702</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -30410,7 +30410,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,254,100</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -30466,7 +30466,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,281,454</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -30522,7 +30522,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -30578,7 +30578,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,889,391</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -30634,7 +30634,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,985,289</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -30690,7 +30690,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,087,584</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -30746,7 +30746,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,193,416</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -30802,7 +30802,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -30858,7 +30858,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,477,793</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -30914,7 +30914,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,569,088</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -30970,7 +30970,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,653,942</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -31026,7 +31026,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,735,277</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -31082,7 +31082,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -31138,7 +31138,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>38,181</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -31194,7 +31194,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>38,482</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -31250,7 +31250,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>38,756</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -31306,7 +31306,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>39,039</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -31362,7 +31362,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -31418,7 +31418,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,801,543</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -31474,7 +31474,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,794,137</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -31530,7 +31530,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,794,885</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -31586,7 +31586,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,800,839</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -31642,7 +31642,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -31698,7 +31698,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>607,950</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -31754,7 +31754,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>620,001</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -31810,7 +31810,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>630,419</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -31866,7 +31866,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>640,064</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
@@ -31922,7 +31922,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -31978,7 +31978,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>650,991</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -32034,7 +32034,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>663,653</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -32090,7 +32090,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>676,283</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -32146,7 +32146,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>686,607</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -32202,7 +32202,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -32258,7 +32258,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>26,846,541</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -32314,7 +32314,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>27,533,134</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -32370,7 +32370,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>28,225,177</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -32426,7 +32426,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>28,915,653</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -32482,7 +32482,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -32538,7 +32538,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>18,367,883</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
@@ -32594,7 +32594,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>18,867,337</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -32650,7 +32650,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>19,377,061</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -32706,7 +32706,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>19,889,742</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -32762,7 +32762,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -32818,7 +32818,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32,399,271</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -32874,7 +32874,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32,804,020</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
@@ -32930,7 +32930,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>33,199,993</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
@@ -32986,7 +32986,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>33,573,874</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -33042,7 +33042,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
@@ -33098,7 +33098,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>489,758</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -33154,7 +33154,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>504,508</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -33210,7 +33210,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>514,438</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -33266,7 +33266,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>521,457</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -33322,7 +33322,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -33378,7 +33378,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>19,934,298</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -33434,7 +33434,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>20,567,424</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -33490,7 +33490,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>21,224,040</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -33546,7 +33546,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>21,904,983</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -33602,7 +33602,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -33658,7 +33658,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>484,630</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -33714,7 +33714,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>504,062</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -33770,7 +33770,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>515,332</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -33826,7 +33826,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>518,536</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -33882,7 +33882,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -33938,7 +33938,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>45,989</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -33994,7 +33994,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>44,728</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -34050,7 +34050,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>43,413</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -34106,7 +34106,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>42,050</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
@@ -34162,7 +34162,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -34218,7 +34218,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,270,712</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -34274,7 +34274,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,383,849</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
@@ -34330,7 +34330,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,498,604</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -34386,7 +34386,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,614,974</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
@@ -34442,7 +34442,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
@@ -34498,7 +34498,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,265,577</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
@@ -34554,7 +34554,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,265,985</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
@@ -34610,7 +34610,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,266,014</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -34666,7 +34666,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,266,334</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
@@ -34722,7 +34722,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
@@ -34778,7 +34778,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>124,013,861</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
@@ -34834,7 +34834,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>125,085,311</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
@@ -34890,7 +34890,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>125,998,302</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
@@ -34946,7 +34946,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>126,705,138</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
@@ -35002,7 +35002,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -35058,7 +35058,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>110,929</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
@@ -35114,7 +35114,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>111,379</t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
@@ -35170,7 +35170,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>112,106</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -35226,7 +35226,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>113,131</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
@@ -35282,7 +35282,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
@@ -35338,7 +35338,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,707,203</t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
@@ -35394,7 +35394,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,664,224</t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -35450,7 +35450,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,635,130</t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
@@ -35506,7 +35506,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,615,199</t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
@@ -35562,7 +35562,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>37,029</t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
@@ -35618,7 +35618,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>37,034</t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
@@ -35674,7 +35674,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>36,922</t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
@@ -35730,7 +35730,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>36,686</t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
@@ -35786,7 +35786,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
@@ -35842,7 +35842,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,163,991</t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
@@ -35898,7 +35898,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,232,430</t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
@@ -35954,7 +35954,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,294,335</t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
@@ -36010,7 +36010,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,347,782</t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
@@ -36066,7 +36066,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
@@ -36122,7 +36122,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>622,227</t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
@@ -36178,7 +36178,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>622,028</t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
@@ -36234,7 +36234,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>621,306</t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
@@ -36290,7 +36290,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>619,211</t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
@@ -36346,7 +36346,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
@@ -36402,7 +36402,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>35,927,511</t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
@@ -36458,7 +36458,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>36,304,408</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
@@ -36514,7 +36514,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>36,688,772</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -36570,7 +36570,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>37,076,584</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
@@ -36626,7 +36626,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
@@ -36682,7 +36682,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>29,423,878</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
@@ -36738,7 +36738,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>30,285,595</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
@@ -36794,7 +36794,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>31,178,239</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
@@ -36850,7 +36850,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32,077,072</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -36906,7 +36906,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
@@ -36962,7 +36962,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>52,666,014</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
@@ -37018,7 +37018,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>53,040,212</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
@@ -37074,7 +37074,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>53,423,198</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
@@ -37130,7 +37130,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>53,798,084</t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
@@ -37186,7 +37186,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
@@ -37242,7 +37242,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,405,680</t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
@@ -37298,7 +37298,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,446,644</t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
@@ -37354,7 +37354,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,489,098</t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
@@ -37410,7 +37410,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,530,151</t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
@@ -37466,7 +37466,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D662" t="inlineStr">
@@ -37522,7 +37522,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,924</t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
@@ -37578,7 +37578,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>12,132</t>
         </is>
       </c>
       <c r="D664" t="inlineStr">
@@ -37634,7 +37634,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>12,315</t>
         </is>
       </c>
       <c r="D665" t="inlineStr">
@@ -37690,7 +37690,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>12,511</t>
         </is>
       </c>
       <c r="D666" t="inlineStr">
@@ -37746,7 +37746,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D667" t="inlineStr">
@@ -37802,7 +37802,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>28,506,712</t>
         </is>
       </c>
       <c r="D668" t="inlineStr">
@@ -37858,7 +37858,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>28,832,496</t>
         </is>
       </c>
       <c r="D669" t="inlineStr">
@@ -37914,7 +37914,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>29,348,627</t>
         </is>
       </c>
       <c r="D670" t="inlineStr">
@@ -37970,7 +37970,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>30,034,989</t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
@@ -38026,7 +38026,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D672" t="inlineStr">
@@ -38082,7 +38082,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>17,231,624</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
@@ -38138,7 +38138,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>17,344,874</t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
@@ -38194,7 +38194,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>17,441,500</t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
@@ -38250,7 +38250,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>17,533,044</t>
         </is>
       </c>
       <c r="D676" t="inlineStr">
@@ -38306,7 +38306,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
@@ -38362,7 +38362,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>271,170</t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -38418,7 +38418,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>271,240</t>
         </is>
       </c>
       <c r="D679" t="inlineStr">
@@ -38474,7 +38474,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>272,460</t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
@@ -38530,7 +38530,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>274,660</t>
         </is>
       </c>
       <c r="D681" t="inlineStr">
@@ -38586,7 +38586,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D682" t="inlineStr">
@@ -38642,7 +38642,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,900,600</t>
         </is>
       </c>
       <c r="D683" t="inlineStr">
@@ -38698,7 +38698,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,979,200</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
@@ -38754,7 +38754,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,090,200</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
@@ -38810,7 +38810,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,111,400</t>
         </is>
       </c>
       <c r="D686" t="inlineStr">
@@ -38866,7 +38866,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
@@ -38922,7 +38922,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,572,233</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
@@ -38978,7 +38978,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,663,924</t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
@@ -39034,7 +39034,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,755,895</t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
@@ -39090,7 +39090,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,850,540</t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
@@ -39146,7 +39146,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
@@ -39202,7 +39202,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>22,577,058</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
@@ -39258,7 +39258,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>23,443,393</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
@@ -39314,7 +39314,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>24,333,639</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
@@ -39370,7 +39370,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>25,252,722</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
@@ -39426,7 +39426,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
@@ -39482,7 +39482,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>198,387,623</t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
@@ -39538,7 +39538,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>203,304,492</t>
         </is>
       </c>
       <c r="D699" t="inlineStr">
@@ -39594,7 +39594,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>208,327,405</t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
@@ -39650,7 +39650,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>213,401,323</t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
@@ -39706,7 +39706,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
@@ -39762,7 +39762,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>25,638,149</t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
@@ -39818,7 +39818,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>25,755,441</t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
@@ -39874,7 +39874,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>25,867,467</t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
@@ -39930,7 +39930,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>25,971,909</t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
@@ -39986,7 +39986,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D707" t="inlineStr">
@@ -40042,7 +40042,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,076,217</t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
@@ -40098,7 +40098,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,076,694</t>
         </is>
       </c>
       <c r="D709" t="inlineStr">
@@ -40154,7 +40154,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,072,531</t>
         </is>
       </c>
       <c r="D710" t="inlineStr">
@@ -40210,7 +40210,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,065,092</t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
@@ -40266,7 +40266,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>50,304</t>
         </is>
       </c>
       <c r="D712" t="inlineStr">
@@ -40322,7 +40322,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>49,858</t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
@@ -40378,7 +40378,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>49,587</t>
         </is>
       </c>
       <c r="D714" t="inlineStr">
@@ -40434,7 +40434,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>49,481</t>
         </is>
       </c>
       <c r="D715" t="inlineStr">
@@ -40490,7 +40490,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
@@ -40546,7 +40546,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,311,916</t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
@@ -40602,7 +40602,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,347,896</t>
         </is>
       </c>
       <c r="D718" t="inlineStr">
@@ -40658,7 +40658,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,379,475</t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
@@ -40714,7 +40714,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,408,320</t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
@@ -40770,7 +40770,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
@@ -40826,7 +40826,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,601,157</t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
@@ -40882,7 +40882,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,602,768</t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
@@ -40938,7 +40938,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,543,399</t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
@@ -40994,7 +40994,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,520,471</t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
@@ -41050,7 +41050,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
@@ -41106,7 +41106,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>219,731,479</t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
@@ -41162,7 +41162,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>223,293,280</t>
         </is>
       </c>
       <c r="D728" t="inlineStr">
@@ -41218,7 +41218,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>227,196,741</t>
         </is>
       </c>
       <c r="D729" t="inlineStr">
@@ -41274,7 +41274,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>231,402,117</t>
         </is>
       </c>
       <c r="D730" t="inlineStr">
@@ -41330,7 +41330,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D731" t="inlineStr">
@@ -41386,7 +41386,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>17,864</t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
@@ -41442,7 +41442,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>17,916</t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
@@ -41498,7 +41498,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>17,972</t>
         </is>
       </c>
       <c r="D734" t="inlineStr">
@@ -41554,7 +41554,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>18,024</t>
         </is>
       </c>
       <c r="D735" t="inlineStr">
@@ -41610,7 +41610,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D736" t="inlineStr">
@@ -41666,7 +41666,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,165,255</t>
         </is>
       </c>
       <c r="D737" t="inlineStr">
@@ -41722,7 +41722,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,232,532</t>
         </is>
       </c>
       <c r="D738" t="inlineStr">
@@ -41778,7 +41778,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,294,396</t>
         </is>
       </c>
       <c r="D739" t="inlineStr">
@@ -41834,7 +41834,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,351,267</t>
         </is>
       </c>
       <c r="D740" t="inlineStr">
@@ -41890,7 +41890,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D741" t="inlineStr">
@@ -41946,7 +41946,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,329,227</t>
         </is>
       </c>
       <c r="D742" t="inlineStr">
@@ -42002,7 +42002,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,542,486</t>
         </is>
       </c>
       <c r="D743" t="inlineStr">
@@ -42058,7 +42058,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,749,640</t>
         </is>
       </c>
       <c r="D744" t="inlineStr">
@@ -42114,7 +42114,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,949,437</t>
         </is>
       </c>
       <c r="D745" t="inlineStr">
@@ -42170,7 +42170,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D746" t="inlineStr">
@@ -42226,7 +42226,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,443,328</t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
@@ -42282,7 +42282,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,530,026</t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
@@ -42338,7 +42338,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,618,695</t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
@@ -42394,7 +42394,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,703,799</t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
@@ -42450,7 +42450,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
@@ -42506,7 +42506,7 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32,203,944</t>
         </is>
       </c>
       <c r="D752" t="inlineStr">
@@ -42562,7 +42562,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32,824,861</t>
         </is>
       </c>
       <c r="D753" t="inlineStr">
@@ -42618,7 +42618,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>33,304,756</t>
         </is>
       </c>
       <c r="D754" t="inlineStr">
@@ -42674,7 +42674,7 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>33,715,471</t>
         </is>
       </c>
       <c r="D755" t="inlineStr">
@@ -42730,7 +42730,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D756" t="inlineStr">
@@ -42786,7 +42786,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>108,568,836</t>
         </is>
       </c>
       <c r="D757" t="inlineStr">
@@ -42842,7 +42842,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>110,380,804</t>
         </is>
       </c>
       <c r="D758" t="inlineStr">
@@ -42898,7 +42898,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>112,190,977</t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
@@ -42954,7 +42954,7 @@
       </c>
       <c r="C760" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>113,880,328</t>
         </is>
       </c>
       <c r="D760" t="inlineStr">
@@ -43010,7 +43010,7 @@
       </c>
       <c r="C761" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D761" t="inlineStr">
@@ -43066,7 +43066,7 @@
       </c>
       <c r="C762" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>37,974,750</t>
         </is>
       </c>
       <c r="D762" t="inlineStr">
@@ -43122,7 +43122,7 @@
       </c>
       <c r="C763" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>37,965,475</t>
         </is>
       </c>
       <c r="D763" t="inlineStr">
@@ -43178,7 +43178,7 @@
       </c>
       <c r="C764" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>37,899,070</t>
         </is>
       </c>
       <c r="D764" t="inlineStr">
@@ -43234,7 +43234,7 @@
       </c>
       <c r="C765" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>37,747,124</t>
         </is>
       </c>
       <c r="D765" t="inlineStr">
@@ -43290,7 +43290,7 @@
       </c>
       <c r="C766" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D766" t="inlineStr">
@@ -43346,7 +43346,7 @@
       </c>
       <c r="C767" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,283,822</t>
         </is>
       </c>
       <c r="D767" t="inlineStr">
@@ -43402,7 +43402,7 @@
       </c>
       <c r="C768" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,286,263</t>
         </is>
       </c>
       <c r="D768" t="inlineStr">
@@ -43458,7 +43458,7 @@
       </c>
       <c r="C769" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,297,081</t>
         </is>
       </c>
       <c r="D769" t="inlineStr">
@@ -43514,7 +43514,7 @@
       </c>
       <c r="C770" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,325,147</t>
         </is>
       </c>
       <c r="D770" t="inlineStr">
@@ -43570,7 +43570,7 @@
       </c>
       <c r="C771" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D771" t="inlineStr">
@@ -43626,7 +43626,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,193,354</t>
         </is>
       </c>
       <c r="D772" t="inlineStr">
@@ -43682,7 +43682,7 @@
       </c>
       <c r="C773" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,193,694</t>
         </is>
       </c>
       <c r="D773" t="inlineStr">
@@ -43738,7 +43738,7 @@
       </c>
       <c r="C774" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,281,557</t>
         </is>
       </c>
       <c r="D774" t="inlineStr">
@@ -43794,7 +43794,7 @@
       </c>
       <c r="C775" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,262,693</t>
         </is>
       </c>
       <c r="D775" t="inlineStr">
@@ -43850,7 +43850,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D776" t="inlineStr">
@@ -43906,7 +43906,7 @@
       </c>
       <c r="C777" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,766,732</t>
         </is>
       </c>
       <c r="D777" t="inlineStr">
@@ -43962,7 +43962,7 @@
       </c>
       <c r="C778" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,807,235</t>
         </is>
       </c>
       <c r="D778" t="inlineStr">
@@ -44018,7 +44018,7 @@
       </c>
       <c r="C779" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,760,385</t>
         </is>
       </c>
       <c r="D779" t="inlineStr">
@@ -44074,7 +44074,7 @@
       </c>
       <c r="C780" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,688,235</t>
         </is>
       </c>
       <c r="D780" t="inlineStr">
@@ -44130,7 +44130,7 @@
       </c>
       <c r="C781" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D781" t="inlineStr">
@@ -44186,7 +44186,7 @@
       </c>
       <c r="C782" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,441,062</t>
         </is>
       </c>
       <c r="D782" t="inlineStr">
@@ -44242,7 +44242,7 @@
       </c>
       <c r="C783" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,570,733</t>
         </is>
       </c>
       <c r="D783" t="inlineStr">
@@ -44298,7 +44298,7 @@
       </c>
       <c r="C784" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,702,174</t>
         </is>
       </c>
       <c r="D784" t="inlineStr">
@@ -44354,7 +44354,7 @@
       </c>
       <c r="C785" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,835,806</t>
         </is>
       </c>
       <c r="D785" t="inlineStr">
@@ -44410,7 +44410,7 @@
       </c>
       <c r="C786" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D786" t="inlineStr">
@@ -44466,7 +44466,7 @@
       </c>
       <c r="C787" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>19,473,970</t>
         </is>
       </c>
       <c r="D787" t="inlineStr">
@@ -44522,7 +44522,7 @@
       </c>
       <c r="C788" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>19,371,648</t>
         </is>
       </c>
       <c r="D788" t="inlineStr">
@@ -44578,7 +44578,7 @@
       </c>
       <c r="C789" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>19,265,250</t>
         </is>
       </c>
       <c r="D789" t="inlineStr">
@@ -44634,7 +44634,7 @@
       </c>
       <c r="C790" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>19,119,880</t>
         </is>
       </c>
       <c r="D790" t="inlineStr">
@@ -44690,7 +44690,7 @@
       </c>
       <c r="C791" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D791" t="inlineStr">
@@ -44746,7 +44746,7 @@
       </c>
       <c r="C792" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>144,477,859</t>
         </is>
       </c>
       <c r="D792" t="inlineStr">
@@ -44802,7 +44802,7 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>144,406,261</t>
         </is>
       </c>
       <c r="D793" t="inlineStr">
@@ -44858,7 +44858,7 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>144,073,139</t>
         </is>
       </c>
       <c r="D794" t="inlineStr">
@@ -44914,7 +44914,7 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>143,449,286</t>
         </is>
       </c>
       <c r="D795" t="inlineStr">
@@ -44970,7 +44970,7 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D796" t="inlineStr">
@@ -45026,7 +45026,7 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>12,531,808</t>
         </is>
       </c>
       <c r="D797" t="inlineStr">
@@ -45082,7 +45082,7 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>12,835,028</t>
         </is>
       </c>
       <c r="D798" t="inlineStr">
@@ -45138,7 +45138,7 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>13,146,362</t>
         </is>
       </c>
       <c r="D799" t="inlineStr">
@@ -45194,7 +45194,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>13,461,888</t>
         </is>
       </c>
       <c r="D800" t="inlineStr">
@@ -45250,7 +45250,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D801" t="inlineStr">
@@ -45306,7 +45306,7 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>209,701</t>
         </is>
       </c>
       <c r="D802" t="inlineStr">
@@ -45362,7 +45362,7 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>211,905</t>
         </is>
       </c>
       <c r="D803" t="inlineStr">
@@ -45418,7 +45418,7 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>214,929</t>
         </is>
       </c>
       <c r="D804" t="inlineStr">
@@ -45474,7 +45474,7 @@
       </c>
       <c r="C805" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>218,764</t>
         </is>
       </c>
       <c r="D805" t="inlineStr">
@@ -45530,7 +45530,7 @@
       </c>
       <c r="C806" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>34,156</t>
         </is>
       </c>
       <c r="D806" t="inlineStr">
@@ -45586,7 +45586,7 @@
       </c>
       <c r="C807" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>34,178</t>
         </is>
       </c>
       <c r="D807" t="inlineStr">
@@ -45642,7 +45642,7 @@
       </c>
       <c r="C808" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>34,007</t>
         </is>
       </c>
       <c r="D808" t="inlineStr">
@@ -45698,7 +45698,7 @@
       </c>
       <c r="C809" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>33,745</t>
         </is>
       </c>
       <c r="D809" t="inlineStr">
@@ -45754,7 +45754,7 @@
       </c>
       <c r="C810" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D810" t="inlineStr">
@@ -45810,7 +45810,7 @@
       </c>
       <c r="C811" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>211,344</t>
         </is>
       </c>
       <c r="D811" t="inlineStr">
@@ -45866,7 +45866,7 @@
       </c>
       <c r="C812" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>214,599</t>
         </is>
       </c>
       <c r="D812" t="inlineStr">
@@ -45922,7 +45922,7 @@
       </c>
       <c r="C813" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>218,641</t>
         </is>
       </c>
       <c r="D813" t="inlineStr">
@@ -45978,7 +45978,7 @@
       </c>
       <c r="C814" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>223,107</t>
         </is>
       </c>
       <c r="D814" t="inlineStr">
@@ -46034,7 +46034,7 @@
       </c>
       <c r="C815" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D815" t="inlineStr">
@@ -46090,7 +46090,7 @@
       </c>
       <c r="C816" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>35,018,133</t>
         </is>
       </c>
       <c r="D816" t="inlineStr">
@@ -46146,7 +46146,7 @@
       </c>
       <c r="C817" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>35,827,362</t>
         </is>
       </c>
       <c r="D817" t="inlineStr">
@@ -46202,7 +46202,7 @@
       </c>
       <c r="C818" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>35,997,107</t>
         </is>
       </c>
       <c r="D818" t="inlineStr">
@@ -46258,7 +46258,7 @@
       </c>
       <c r="C819" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>35,950,396</t>
         </is>
       </c>
       <c r="D819" t="inlineStr">
@@ -46314,7 +46314,7 @@
       </c>
       <c r="C820" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D820" t="inlineStr">
@@ -46370,7 +46370,7 @@
       </c>
       <c r="C821" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>15,574,909</t>
         </is>
       </c>
       <c r="D821" t="inlineStr">
@@ -46426,7 +46426,7 @@
       </c>
       <c r="C822" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>16,000,781</t>
         </is>
       </c>
       <c r="D822" t="inlineStr">
@@ -46482,7 +46482,7 @@
       </c>
       <c r="C823" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>16,436,120</t>
         </is>
       </c>
       <c r="D823" t="inlineStr">
@@ -46538,7 +46538,7 @@
       </c>
       <c r="C824" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>16,876,720</t>
         </is>
       </c>
       <c r="D824" t="inlineStr">
@@ -46594,7 +46594,7 @@
       </c>
       <c r="C825" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D825" t="inlineStr">
@@ -46650,7 +46650,7 @@
       </c>
       <c r="C826" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,982,604</t>
         </is>
       </c>
       <c r="D826" t="inlineStr">
@@ -46706,7 +46706,7 @@
       </c>
       <c r="C827" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,945,235</t>
         </is>
       </c>
       <c r="D827" t="inlineStr">
@@ -46762,7 +46762,7 @@
       </c>
       <c r="C828" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,899,126</t>
         </is>
       </c>
       <c r="D828" t="inlineStr">
@@ -46818,7 +46818,7 @@
       </c>
       <c r="C829" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,834,326</t>
         </is>
       </c>
       <c r="D829" t="inlineStr">
@@ -46874,7 +46874,7 @@
       </c>
       <c r="C830" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D830" t="inlineStr">
@@ -46930,7 +46930,7 @@
       </c>
       <c r="C831" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>96,762</t>
         </is>
       </c>
       <c r="D831" t="inlineStr">
@@ -46986,7 +46986,7 @@
       </c>
       <c r="C832" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>97,625</t>
         </is>
       </c>
       <c r="D832" t="inlineStr">
@@ -47042,7 +47042,7 @@
       </c>
       <c r="C833" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>98,462</t>
         </is>
       </c>
       <c r="D833" t="inlineStr">
@@ -47098,7 +47098,7 @@
       </c>
       <c r="C834" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>99,258</t>
         </is>
       </c>
       <c r="D834" t="inlineStr">
@@ -47154,7 +47154,7 @@
       </c>
       <c r="C835" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D835" t="inlineStr">
@@ -47210,7 +47210,7 @@
       </c>
       <c r="C836" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>7,861,281</t>
         </is>
       </c>
       <c r="D836" t="inlineStr">
@@ -47266,7 +47266,7 @@
       </c>
       <c r="C837" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8,046,828</t>
         </is>
       </c>
       <c r="D837" t="inlineStr">
@@ -47322,7 +47322,7 @@
       </c>
       <c r="C838" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8,233,970</t>
         </is>
       </c>
       <c r="D838" t="inlineStr">
@@ -47378,7 +47378,7 @@
       </c>
       <c r="C839" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8,420,641</t>
         </is>
       </c>
       <c r="D839" t="inlineStr">
@@ -47434,7 +47434,7 @@
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D840" t="inlineStr">
@@ -47490,7 +47490,7 @@
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,638,676</t>
         </is>
       </c>
       <c r="D841" t="inlineStr">
@@ -47546,7 +47546,7 @@
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,703,569</t>
         </is>
       </c>
       <c r="D842" t="inlineStr">
@@ -47602,7 +47602,7 @@
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,685,807</t>
         </is>
       </c>
       <c r="D843" t="inlineStr">
@@ -47658,7 +47658,7 @@
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,453,566</t>
         </is>
       </c>
       <c r="D844" t="inlineStr">
@@ -47714,7 +47714,7 @@
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D845" t="inlineStr">
@@ -47770,7 +47770,7 @@
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>40,895</t>
         </is>
       </c>
       <c r="D846" t="inlineStr">
@@ -47826,7 +47826,7 @@
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>41,608</t>
         </is>
       </c>
       <c r="D847" t="inlineStr">
@@ -47882,7 +47882,7 @@
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>42,310</t>
         </is>
       </c>
       <c r="D848" t="inlineStr">
@@ -47938,7 +47938,7 @@
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>42,846</t>
         </is>
       </c>
       <c r="D849" t="inlineStr">
@@ -47994,7 +47994,7 @@
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D850" t="inlineStr">
@@ -48050,7 +48050,7 @@
       </c>
       <c r="C851" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,446,771</t>
         </is>
       </c>
       <c r="D851" t="inlineStr">
@@ -48106,7 +48106,7 @@
       </c>
       <c r="C852" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,454,147</t>
         </is>
       </c>
       <c r="D852" t="inlineStr">
@@ -48162,7 +48162,7 @@
       </c>
       <c r="C853" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,458,827</t>
         </is>
       </c>
       <c r="D853" t="inlineStr">
@@ -48218,7 +48218,7 @@
       </c>
       <c r="C854" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>5,447,247</t>
         </is>
       </c>
       <c r="D854" t="inlineStr">
@@ -48274,7 +48274,7 @@
       </c>
       <c r="C855" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D855" t="inlineStr">
@@ -48330,7 +48330,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,073,894</t>
         </is>
       </c>
       <c r="D856" t="inlineStr">
@@ -48386,7 +48386,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,088,385</t>
         </is>
       </c>
       <c r="D857" t="inlineStr">
@@ -48442,7 +48442,7 @@
       </c>
       <c r="C858" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,102,419</t>
         </is>
       </c>
       <c r="D858" t="inlineStr">
@@ -48498,7 +48498,7 @@
       </c>
       <c r="C859" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>2,108,079</t>
         </is>
       </c>
       <c r="D859" t="inlineStr">
@@ -48554,7 +48554,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D860" t="inlineStr">
@@ -48610,7 +48610,7 @@
       </c>
       <c r="C861" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>659,249</t>
         </is>
       </c>
       <c r="D861" t="inlineStr">
@@ -48666,7 +48666,7 @@
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>674,993</t>
         </is>
       </c>
       <c r="D862" t="inlineStr">
@@ -48722,7 +48722,7 @@
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>691,191</t>
         </is>
       </c>
       <c r="D863" t="inlineStr">
@@ -48778,7 +48778,7 @@
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>707,851</t>
         </is>
       </c>
       <c r="D864" t="inlineStr">
@@ -48834,7 +48834,7 @@
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D865" t="inlineStr">
@@ -48890,7 +48890,7 @@
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>15,411,094</t>
         </is>
       </c>
       <c r="D866" t="inlineStr">
@@ -48946,7 +48946,7 @@
       </c>
       <c r="C867" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>15,981,300</t>
         </is>
       </c>
       <c r="D867" t="inlineStr">
@@ -49002,7 +49002,7 @@
       </c>
       <c r="C868" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>16,537,016</t>
         </is>
       </c>
       <c r="D868" t="inlineStr">
@@ -49058,7 +49058,7 @@
       </c>
       <c r="C869" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>17,065,581</t>
         </is>
       </c>
       <c r="D869" t="inlineStr">
@@ -49114,7 +49114,7 @@
       </c>
       <c r="C870" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D870" t="inlineStr">
@@ -49170,7 +49170,7 @@
       </c>
       <c r="C871" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>57,339,635</t>
         </is>
       </c>
       <c r="D871" t="inlineStr">
@@ -49226,7 +49226,7 @@
       </c>
       <c r="C872" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>58,087,055</t>
         </is>
       </c>
       <c r="D872" t="inlineStr">
@@ -49282,7 +49282,7 @@
       </c>
       <c r="C873" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>58,801,927</t>
         </is>
       </c>
       <c r="D873" t="inlineStr">
@@ -49338,7 +49338,7 @@
       </c>
       <c r="C874" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>59,392,255</t>
         </is>
       </c>
       <c r="D874" t="inlineStr">
@@ -49394,7 +49394,7 @@
       </c>
       <c r="C875" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D875" t="inlineStr">
@@ -49450,7 +49450,7 @@
       </c>
       <c r="C876" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>51,585,058</t>
         </is>
       </c>
       <c r="D876" t="inlineStr">
@@ -49506,7 +49506,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>51,764,822</t>
         </is>
       </c>
       <c r="D877" t="inlineStr">
@@ -49562,7 +49562,7 @@
       </c>
       <c r="C878" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>51,836,239</t>
         </is>
       </c>
       <c r="D878" t="inlineStr">
@@ -49618,7 +49618,7 @@
       </c>
       <c r="C879" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>51,744,876</t>
         </is>
       </c>
       <c r="D879" t="inlineStr">
@@ -49674,7 +49674,7 @@
       </c>
       <c r="C880" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D880" t="inlineStr">
@@ -49730,7 +49730,7 @@
       </c>
       <c r="C881" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,395,329</t>
         </is>
       </c>
       <c r="D881" t="inlineStr">
@@ -49786,7 +49786,7 @@
       </c>
       <c r="C882" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,447,666</t>
         </is>
       </c>
       <c r="D882" t="inlineStr">
@@ -49842,7 +49842,7 @@
       </c>
       <c r="C883" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,606,227</t>
         </is>
       </c>
       <c r="D883" t="inlineStr">
@@ -49898,7 +49898,7 @@
       </c>
       <c r="C884" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,748,272</t>
         </is>
       </c>
       <c r="D884" t="inlineStr">
@@ -49954,7 +49954,7 @@
       </c>
       <c r="C885" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D885" t="inlineStr">
@@ -50010,7 +50010,7 @@
       </c>
       <c r="C886" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>46,797,754</t>
         </is>
       </c>
       <c r="D886" t="inlineStr">
@@ -50066,7 +50066,7 @@
       </c>
       <c r="C887" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>47,134,837</t>
         </is>
       </c>
       <c r="D887" t="inlineStr">
@@ -50122,7 +50122,7 @@
       </c>
       <c r="C888" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>47,365,655</t>
         </is>
       </c>
       <c r="D888" t="inlineStr">
@@ -50178,7 +50178,7 @@
       </c>
       <c r="C889" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>47,415,750</t>
         </is>
       </c>
       <c r="D889" t="inlineStr">
@@ -50234,7 +50234,7 @@
       </c>
       <c r="C890" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D890" t="inlineStr">
@@ -50290,7 +50290,7 @@
       </c>
       <c r="C891" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>21,670,000</t>
         </is>
       </c>
       <c r="D891" t="inlineStr">
@@ -50346,7 +50346,7 @@
       </c>
       <c r="C892" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>21,803,000</t>
         </is>
       </c>
       <c r="D892" t="inlineStr">
@@ -50402,7 +50402,7 @@
       </c>
       <c r="C893" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>21,919,000</t>
         </is>
       </c>
       <c r="D893" t="inlineStr">
@@ -50458,7 +50458,7 @@
       </c>
       <c r="C894" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>22,156,000</t>
         </is>
       </c>
       <c r="D894" t="inlineStr">
@@ -50514,7 +50514,7 @@
       </c>
       <c r="C895" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D895" t="inlineStr">
@@ -50570,7 +50570,7 @@
       </c>
       <c r="C896" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>47,761</t>
         </is>
       </c>
       <c r="D896" t="inlineStr">
@@ -50626,7 +50626,7 @@
       </c>
       <c r="C897" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>47,712</t>
         </is>
       </c>
       <c r="D897" t="inlineStr">
@@ -50682,7 +50682,7 @@
       </c>
       <c r="C898" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>47,642</t>
         </is>
       </c>
       <c r="D898" t="inlineStr">
@@ -50738,7 +50738,7 @@
       </c>
       <c r="C899" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>47,606</t>
         </is>
       </c>
       <c r="D899" t="inlineStr">
@@ -50794,7 +50794,7 @@
       </c>
       <c r="C900" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D900" t="inlineStr">
@@ -50850,7 +50850,7 @@
       </c>
       <c r="C901" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>177,888</t>
         </is>
       </c>
       <c r="D901" t="inlineStr">
@@ -50906,7 +50906,7 @@
       </c>
       <c r="C902" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>178,583</t>
         </is>
       </c>
       <c r="D902" t="inlineStr">
@@ -50962,7 +50962,7 @@
       </c>
       <c r="C903" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>179,237</t>
         </is>
       </c>
       <c r="D903" t="inlineStr">
@@ -51018,7 +51018,7 @@
       </c>
       <c r="C904" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>179,651</t>
         </is>
       </c>
       <c r="D904" t="inlineStr">
@@ -51074,7 +51074,7 @@
       </c>
       <c r="C905" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D905" t="inlineStr">
@@ -51130,7 +51130,7 @@
       </c>
       <c r="C906" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>33,852</t>
         </is>
       </c>
       <c r="D906" t="inlineStr">
@@ -51186,7 +51186,7 @@
       </c>
       <c r="C907" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>33,121</t>
         </is>
       </c>
       <c r="D907" t="inlineStr">
@@ -51242,7 +51242,7 @@
       </c>
       <c r="C908" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32,553</t>
         </is>
       </c>
       <c r="D908" t="inlineStr">
@@ -51298,7 +51298,7 @@
       </c>
       <c r="C909" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>31,948</t>
         </is>
       </c>
       <c r="D909" t="inlineStr">
@@ -51354,7 +51354,7 @@
       </c>
       <c r="C910" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D910" t="inlineStr">
@@ -51410,7 +51410,7 @@
       </c>
       <c r="C911" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>105,281</t>
         </is>
       </c>
       <c r="D911" t="inlineStr">
@@ -51466,7 +51466,7 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>104,924</t>
         </is>
       </c>
       <c r="D912" t="inlineStr">
@@ -51522,7 +51522,7 @@
       </c>
       <c r="C913" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>104,632</t>
         </is>
       </c>
       <c r="D913" t="inlineStr">
@@ -51578,7 +51578,7 @@
       </c>
       <c r="C914" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>104,332</t>
         </is>
       </c>
       <c r="D914" t="inlineStr">
@@ -51634,7 +51634,7 @@
       </c>
       <c r="C915" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D915" t="inlineStr">
@@ -51690,7 +51690,7 @@
       </c>
       <c r="C916" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>41,999,059</t>
         </is>
       </c>
       <c r="D916" t="inlineStr">
@@ -51746,7 +51746,7 @@
       </c>
       <c r="C917" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>43,232,093</t>
         </is>
       </c>
       <c r="D917" t="inlineStr">
@@ -51802,7 +51802,7 @@
       </c>
       <c r="C918" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>44,440,486</t>
         </is>
       </c>
       <c r="D918" t="inlineStr">
@@ -51858,7 +51858,7 @@
       </c>
       <c r="C919" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>45,657,202</t>
         </is>
       </c>
       <c r="D919" t="inlineStr">
@@ -51914,7 +51914,7 @@
       </c>
       <c r="C920" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D920" t="inlineStr">
@@ -51970,7 +51970,7 @@
       </c>
       <c r="C921" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>593,715</t>
         </is>
       </c>
       <c r="D921" t="inlineStr">
@@ -52026,7 +52026,7 @@
       </c>
       <c r="C922" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>600,301</t>
         </is>
       </c>
       <c r="D922" t="inlineStr">
@@ -52082,7 +52082,7 @@
       </c>
       <c r="C923" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>607,065</t>
         </is>
       </c>
       <c r="D923" t="inlineStr">
@@ -52138,7 +52138,7 @@
       </c>
       <c r="C924" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>612,985</t>
         </is>
       </c>
       <c r="D924" t="inlineStr">
@@ -52194,7 +52194,7 @@
       </c>
       <c r="C925" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D925" t="inlineStr">
@@ -52250,7 +52250,7 @@
       </c>
       <c r="C926" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,175,214</t>
         </is>
       </c>
       <c r="D926" t="inlineStr">
@@ -52306,7 +52306,7 @@
       </c>
       <c r="C927" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,278,887</t>
         </is>
       </c>
       <c r="D927" t="inlineStr">
@@ -52362,7 +52362,7 @@
       </c>
       <c r="C928" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,353,442</t>
         </is>
       </c>
       <c r="D928" t="inlineStr">
@@ -52418,7 +52418,7 @@
       </c>
       <c r="C929" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,415,811</t>
         </is>
       </c>
       <c r="D929" t="inlineStr">
@@ -52474,7 +52474,7 @@
       </c>
       <c r="C930" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D930" t="inlineStr">
@@ -52530,7 +52530,7 @@
       </c>
       <c r="C931" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8,514,329</t>
         </is>
       </c>
       <c r="D931" t="inlineStr">
@@ -52586,7 +52586,7 @@
       </c>
       <c r="C932" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8,575,280</t>
         </is>
       </c>
       <c r="D932" t="inlineStr">
@@ -52642,7 +52642,7 @@
       </c>
       <c r="C933" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8,638,167</t>
         </is>
       </c>
       <c r="D933" t="inlineStr">
@@ -52698,7 +52698,7 @@
       </c>
       <c r="C934" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8,703,405</t>
         </is>
       </c>
       <c r="D934" t="inlineStr">
@@ -52754,7 +52754,7 @@
       </c>
       <c r="C935" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D935" t="inlineStr">
@@ -52810,7 +52810,7 @@
       </c>
       <c r="C936" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>19,333,463</t>
         </is>
       </c>
       <c r="D936" t="inlineStr">
@@ -52866,7 +52866,7 @@
       </c>
       <c r="C937" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>20,098,251</t>
         </is>
       </c>
       <c r="D937" t="inlineStr">
@@ -52922,7 +52922,7 @@
       </c>
       <c r="C938" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>20,772,595</t>
         </is>
       </c>
       <c r="D938" t="inlineStr">
@@ -52978,7 +52978,7 @@
       </c>
       <c r="C939" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>21,324,367</t>
         </is>
       </c>
       <c r="D939" t="inlineStr">
@@ -53034,7 +53034,7 @@
       </c>
       <c r="C940" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D940" t="inlineStr">
@@ -53090,7 +53090,7 @@
       </c>
       <c r="C941" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,128,132</t>
         </is>
       </c>
       <c r="D941" t="inlineStr">
@@ -53146,7 +53146,7 @@
       </c>
       <c r="C942" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,337,003</t>
         </is>
       </c>
       <c r="D942" t="inlineStr">
@@ -53202,7 +53202,7 @@
       </c>
       <c r="C943" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,543,207</t>
         </is>
       </c>
       <c r="D943" t="inlineStr">
@@ -53258,7 +53258,7 @@
       </c>
       <c r="C944" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,750,064</t>
         </is>
       </c>
       <c r="D944" t="inlineStr">
@@ -53314,7 +53314,7 @@
       </c>
       <c r="C945" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D945" t="inlineStr">
@@ -53370,7 +53370,7 @@
       </c>
       <c r="C946" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>58,090,443</t>
         </is>
       </c>
       <c r="D946" t="inlineStr">
@@ -53426,7 +53426,7 @@
       </c>
       <c r="C947" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>59,872,579</t>
         </is>
       </c>
       <c r="D947" t="inlineStr">
@@ -53482,7 +53482,7 @@
       </c>
       <c r="C948" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>61,704,518</t>
         </is>
       </c>
       <c r="D948" t="inlineStr">
@@ -53538,7 +53538,7 @@
       </c>
       <c r="C949" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>63,588,334</t>
         </is>
       </c>
       <c r="D949" t="inlineStr">
@@ -53594,7 +53594,7 @@
       </c>
       <c r="C950" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D950" t="inlineStr">
@@ -53650,7 +53650,7 @@
       </c>
       <c r="C951" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>71,127,802</t>
         </is>
       </c>
       <c r="D951" t="inlineStr">
@@ -53706,7 +53706,7 @@
       </c>
       <c r="C952" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>71,307,763</t>
         </is>
       </c>
       <c r="D952" t="inlineStr">
@@ -53762,7 +53762,7 @@
       </c>
       <c r="C953" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>71,475,664</t>
         </is>
       </c>
       <c r="D953" t="inlineStr">
@@ -53818,7 +53818,7 @@
       </c>
       <c r="C954" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>71,601,103</t>
         </is>
       </c>
       <c r="D954" t="inlineStr">
@@ -53874,7 +53874,7 @@
       </c>
       <c r="C955" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D955" t="inlineStr">
@@ -53930,7 +53930,7 @@
       </c>
       <c r="C956" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,261,845</t>
         </is>
       </c>
       <c r="D956" t="inlineStr">
@@ -53986,7 +53986,7 @@
       </c>
       <c r="C957" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,280,438</t>
         </is>
       </c>
       <c r="D957" t="inlineStr">
@@ -54042,7 +54042,7 @@
       </c>
       <c r="C958" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,299,995</t>
         </is>
       </c>
       <c r="D958" t="inlineStr">
@@ -54098,7 +54098,7 @@
       </c>
       <c r="C959" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,320,942</t>
         </is>
       </c>
       <c r="D959" t="inlineStr">
@@ -54154,7 +54154,7 @@
       </c>
       <c r="C960" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D960" t="inlineStr">
@@ -54210,7 +54210,7 @@
       </c>
       <c r="C961" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8,046,679</t>
         </is>
       </c>
       <c r="D961" t="inlineStr">
@@ -54266,7 +54266,7 @@
       </c>
       <c r="C962" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8,243,094</t>
         </is>
       </c>
       <c r="D962" t="inlineStr">
@@ -54322,7 +54322,7 @@
       </c>
       <c r="C963" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8,442,580</t>
         </is>
       </c>
       <c r="D963" t="inlineStr">
@@ -54378,7 +54378,7 @@
       </c>
       <c r="C964" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>8,644,829</t>
         </is>
       </c>
       <c r="D964" t="inlineStr">
@@ -54434,7 +54434,7 @@
       </c>
       <c r="C965" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D965" t="inlineStr">
@@ -54490,7 +54490,7 @@
       </c>
       <c r="C966" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>105,150</t>
         </is>
       </c>
       <c r="D966" t="inlineStr">
@@ -54546,7 +54546,7 @@
       </c>
       <c r="C967" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>104,951</t>
         </is>
       </c>
       <c r="D967" t="inlineStr">
@@ -54602,7 +54602,7 @@
       </c>
       <c r="C968" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>105,254</t>
         </is>
       </c>
       <c r="D968" t="inlineStr">
@@ -54658,7 +54658,7 @@
       </c>
       <c r="C969" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>106,017</t>
         </is>
       </c>
       <c r="D969" t="inlineStr">
@@ -54714,7 +54714,7 @@
       </c>
       <c r="C970" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D970" t="inlineStr">
@@ -54770,7 +54770,7 @@
       </c>
       <c r="C971" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,504,709</t>
         </is>
       </c>
       <c r="D971" t="inlineStr">
@@ -54826,7 +54826,7 @@
       </c>
       <c r="C972" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,519,955</t>
         </is>
       </c>
       <c r="D972" t="inlineStr">
@@ -54882,7 +54882,7 @@
       </c>
       <c r="C973" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,518,147</t>
         </is>
       </c>
       <c r="D973" t="inlineStr">
@@ -54938,7 +54938,7 @@
       </c>
       <c r="C974" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>1,525,663</t>
         </is>
       </c>
       <c r="D974" t="inlineStr">
@@ -54994,7 +54994,7 @@
       </c>
       <c r="C975" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D975" t="inlineStr">
@@ -55050,7 +55050,7 @@
       </c>
       <c r="C976" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,933,041</t>
         </is>
       </c>
       <c r="D976" t="inlineStr">
@@ -55106,7 +55106,7 @@
       </c>
       <c r="C977" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>12,049,314</t>
         </is>
       </c>
       <c r="D977" t="inlineStr">
@@ -55162,7 +55162,7 @@
       </c>
       <c r="C978" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>12,161,723</t>
         </is>
       </c>
       <c r="D978" t="inlineStr">
@@ -55218,7 +55218,7 @@
       </c>
       <c r="C979" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>12,262,946</t>
         </is>
       </c>
       <c r="D979" t="inlineStr">
@@ -55274,7 +55274,7 @@
       </c>
       <c r="C980" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D980" t="inlineStr">
@@ -55330,7 +55330,7 @@
       </c>
       <c r="C981" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>82,809,304</t>
         </is>
       </c>
       <c r="D981" t="inlineStr">
@@ -55386,7 +55386,7 @@
       </c>
       <c r="C982" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>83,481,684</t>
         </is>
       </c>
       <c r="D982" t="inlineStr">
@@ -55442,7 +55442,7 @@
       </c>
       <c r="C983" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>84,135,428</t>
         </is>
       </c>
       <c r="D983" t="inlineStr">
@@ -55498,7 +55498,7 @@
       </c>
       <c r="C984" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>84,775,404</t>
         </is>
       </c>
       <c r="D984" t="inlineStr">
@@ -55554,7 +55554,7 @@
       </c>
       <c r="C985" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D985" t="inlineStr">
@@ -55610,7 +55610,7 @@
       </c>
       <c r="C986" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,065,066</t>
         </is>
       </c>
       <c r="D986" t="inlineStr">
@@ -55666,7 +55666,7 @@
       </c>
       <c r="C987" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,158,420</t>
         </is>
       </c>
       <c r="D987" t="inlineStr">
@@ -55722,7 +55722,7 @@
       </c>
       <c r="C988" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,250,438</t>
         </is>
       </c>
       <c r="D988" t="inlineStr">
@@ -55778,7 +55778,7 @@
       </c>
       <c r="C989" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>6,341,855</t>
         </is>
       </c>
       <c r="D989" t="inlineStr">
@@ -55834,7 +55834,7 @@
       </c>
       <c r="C990" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D990" t="inlineStr">
@@ -55890,7 +55890,7 @@
       </c>
       <c r="C991" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>41,487</t>
         </is>
       </c>
       <c r="D991" t="inlineStr">
@@ -55946,7 +55946,7 @@
       </c>
       <c r="C992" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>43,080</t>
         </is>
       </c>
       <c r="D992" t="inlineStr">
@@ -56002,7 +56002,7 @@
       </c>
       <c r="C993" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>44,276</t>
         </is>
       </c>
       <c r="D993" t="inlineStr">
@@ -56058,7 +56058,7 @@
       </c>
       <c r="C994" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>45,114</t>
         </is>
       </c>
       <c r="D994" t="inlineStr">
@@ -56114,7 +56114,7 @@
       </c>
       <c r="C995" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D995" t="inlineStr">
@@ -56170,7 +56170,7 @@
       </c>
       <c r="C996" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,865</t>
         </is>
       </c>
       <c r="D996" t="inlineStr">
@@ -56226,7 +56226,7 @@
       </c>
       <c r="C997" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>10,956</t>
         </is>
       </c>
       <c r="D997" t="inlineStr">
@@ -56282,7 +56282,7 @@
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,069</t>
         </is>
       </c>
       <c r="D998" t="inlineStr">
@@ -56338,7 +56338,7 @@
       </c>
       <c r="C999" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>11,204</t>
         </is>
       </c>
       <c r="D999" t="inlineStr">
@@ -56394,7 +56394,7 @@
       </c>
       <c r="C1000" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1000" t="inlineStr">
@@ -56450,7 +56450,7 @@
       </c>
       <c r="C1001" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,140,169</t>
         </is>
       </c>
       <c r="D1001" t="inlineStr">
@@ -56506,7 +56506,7 @@
       </c>
       <c r="C1002" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,211,657</t>
         </is>
       </c>
       <c r="D1002" t="inlineStr">
@@ -56562,7 +56562,7 @@
       </c>
       <c r="C1003" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,287,289</t>
         </is>
       </c>
       <c r="D1003" t="inlineStr">
@@ -56618,7 +56618,7 @@
       </c>
       <c r="C1004" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>9,365,145</t>
         </is>
       </c>
       <c r="D1004" t="inlineStr">
@@ -56674,7 +56674,7 @@
       </c>
       <c r="C1005" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1005" t="inlineStr">
@@ -56730,7 +56730,7 @@
       </c>
       <c r="C1006" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>41,515,395</t>
         </is>
       </c>
       <c r="D1006" t="inlineStr">
@@ -56786,7 +56786,7 @@
       </c>
       <c r="C1007" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>42,949,080</t>
         </is>
       </c>
       <c r="D1007" t="inlineStr">
@@ -56842,7 +56842,7 @@
       </c>
       <c r="C1008" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>44,404,611</t>
         </is>
       </c>
       <c r="D1008" t="inlineStr">
@@ -56898,7 +56898,7 @@
       </c>
       <c r="C1009" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>45,853,778</t>
         </is>
       </c>
       <c r="D1009" t="inlineStr">
@@ -56954,7 +56954,7 @@
       </c>
       <c r="C1010" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1010" t="inlineStr">
@@ -57010,7 +57010,7 @@
       </c>
       <c r="C1011" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>44,622,518</t>
         </is>
       </c>
       <c r="D1011" t="inlineStr">
@@ -57066,7 +57066,7 @@
       </c>
       <c r="C1012" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>44,386,203</t>
         </is>
       </c>
       <c r="D1012" t="inlineStr">
@@ -57122,7 +57122,7 @@
       </c>
       <c r="C1013" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>44,132,049</t>
         </is>
       </c>
       <c r="D1013" t="inlineStr">
@@ -57178,7 +57178,7 @@
       </c>
       <c r="C1014" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>43,792,855</t>
         </is>
       </c>
       <c r="D1014" t="inlineStr">
@@ -57234,7 +57234,7 @@
       </c>
       <c r="C1015" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1015" t="inlineStr">
@@ -57290,7 +57290,7 @@
       </c>
       <c r="C1016" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>66,460,344</t>
         </is>
       </c>
       <c r="D1016" t="inlineStr">
@@ -57346,7 +57346,7 @@
       </c>
       <c r="C1017" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>66,836,327</t>
         </is>
       </c>
       <c r="D1017" t="inlineStr">
@@ -57402,7 +57402,7 @@
       </c>
       <c r="C1018" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>67,081,234</t>
         </is>
       </c>
       <c r="D1018" t="inlineStr">
@@ -57458,7 +57458,7 @@
       </c>
       <c r="C1019" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>67,026,300</t>
         </is>
       </c>
       <c r="D1019" t="inlineStr">
@@ -57514,7 +57514,7 @@
       </c>
       <c r="C1020" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1020" t="inlineStr">
@@ -57570,7 +57570,7 @@
       </c>
       <c r="C1021" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>326,838,199</t>
         </is>
       </c>
       <c r="D1021" t="inlineStr">
@@ -57626,7 +57626,7 @@
       </c>
       <c r="C1022" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>328,329,953</t>
         </is>
       </c>
       <c r="D1022" t="inlineStr">
@@ -57682,7 +57682,7 @@
       </c>
       <c r="C1023" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>331,511,512</t>
         </is>
       </c>
       <c r="D1023" t="inlineStr">
@@ -57738,7 +57738,7 @@
       </c>
       <c r="C1024" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>332,031,554</t>
         </is>
       </c>
       <c r="D1024" t="inlineStr">
@@ -57794,7 +57794,7 @@
       </c>
       <c r="C1025" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1025" t="inlineStr">
@@ -57850,7 +57850,7 @@
       </c>
       <c r="C1026" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,427,042</t>
         </is>
       </c>
       <c r="D1026" t="inlineStr">
@@ -57906,7 +57906,7 @@
       </c>
       <c r="C1027" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,428,409</t>
         </is>
       </c>
       <c r="D1027" t="inlineStr">
@@ -57962,7 +57962,7 @@
       </c>
       <c r="C1028" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,429,086</t>
         </is>
       </c>
       <c r="D1028" t="inlineStr">
@@ -58018,7 +58018,7 @@
       </c>
       <c r="C1029" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>3,426,260</t>
         </is>
       </c>
       <c r="D1029" t="inlineStr">
@@ -58074,7 +58074,7 @@
       </c>
       <c r="C1030" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1030" t="inlineStr">
@@ -58130,7 +58130,7 @@
       </c>
       <c r="C1031" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32,956,100</t>
         </is>
       </c>
       <c r="D1031" t="inlineStr">
@@ -58186,7 +58186,7 @@
       </c>
       <c r="C1032" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>33,580,350</t>
         </is>
       </c>
       <c r="D1032" t="inlineStr">
@@ -58242,7 +58242,7 @@
       </c>
       <c r="C1033" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>34,232,050</t>
         </is>
       </c>
       <c r="D1033" t="inlineStr">
@@ -58298,7 +58298,7 @@
       </c>
       <c r="C1034" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>34,915,100</t>
         </is>
       </c>
       <c r="D1034" t="inlineStr">
@@ -58354,7 +58354,7 @@
       </c>
       <c r="C1035" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1035" t="inlineStr">
@@ -58410,7 +58410,7 @@
       </c>
       <c r="C1036" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>297,298</t>
         </is>
       </c>
       <c r="D1036" t="inlineStr">
@@ -58466,7 +58466,7 @@
       </c>
       <c r="C1037" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>304,404</t>
         </is>
       </c>
       <c r="D1037" t="inlineStr">
@@ -58522,7 +58522,7 @@
       </c>
       <c r="C1038" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>311,685</t>
         </is>
       </c>
       <c r="D1038" t="inlineStr">
@@ -58578,7 +58578,7 @@
       </c>
       <c r="C1039" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>319,137</t>
         </is>
       </c>
       <c r="D1039" t="inlineStr">
@@ -58634,7 +58634,7 @@
       </c>
       <c r="C1040" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1040" t="inlineStr">
@@ -58690,7 +58690,7 @@
       </c>
       <c r="C1041" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>29,825,653</t>
         </is>
       </c>
       <c r="D1041" t="inlineStr">
@@ -58746,7 +58746,7 @@
       </c>
       <c r="C1042" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>28,971,683</t>
         </is>
       </c>
       <c r="D1042" t="inlineStr">
@@ -58802,7 +58802,7 @@
       </c>
       <c r="C1043" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>28,490,453</t>
         </is>
       </c>
       <c r="D1043" t="inlineStr">
@@ -58858,7 +58858,7 @@
       </c>
       <c r="C1044" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>28,199,867</t>
         </is>
       </c>
       <c r="D1044" t="inlineStr">
@@ -58914,7 +58914,7 @@
       </c>
       <c r="C1045" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1045" t="inlineStr">
@@ -58970,7 +58970,7 @@
       </c>
       <c r="C1046" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>94,914,330</t>
         </is>
       </c>
       <c r="D1046" t="inlineStr">
@@ -59026,7 +59026,7 @@
       </c>
       <c r="C1047" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>95,776,716</t>
         </is>
       </c>
       <c r="D1047" t="inlineStr">
@@ -59082,7 +59082,7 @@
       </c>
       <c r="C1048" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>96,648,685</t>
         </is>
       </c>
       <c r="D1048" t="inlineStr">
@@ -59138,7 +59138,7 @@
       </c>
       <c r="C1049" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>97,468,029</t>
         </is>
       </c>
       <c r="D1049" t="inlineStr">
@@ -59194,7 +59194,7 @@
       </c>
       <c r="C1050" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1050" t="inlineStr">
@@ -59250,7 +59250,7 @@
       </c>
       <c r="C1051" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>107,001</t>
         </is>
       </c>
       <c r="D1051" t="inlineStr">
@@ -59306,7 +59306,7 @@
       </c>
       <c r="C1052" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>106,669</t>
         </is>
       </c>
       <c r="D1052" t="inlineStr">
@@ -59362,7 +59362,7 @@
       </c>
       <c r="C1053" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>106,290</t>
         </is>
       </c>
       <c r="D1053" t="inlineStr">
@@ -59418,7 +59418,7 @@
       </c>
       <c r="C1054" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>105,870</t>
         </is>
       </c>
       <c r="D1054" t="inlineStr">
@@ -59474,7 +59474,7 @@
       </c>
       <c r="C1055" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1055" t="inlineStr">
@@ -59530,7 +59530,7 @@
       </c>
       <c r="C1056" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,569,087</t>
         </is>
       </c>
       <c r="D1056" t="inlineStr">
@@ -59586,7 +59586,7 @@
       </c>
       <c r="C1057" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,685,306</t>
         </is>
       </c>
       <c r="D1057" t="inlineStr">
@@ -59642,7 +59642,7 @@
       </c>
       <c r="C1058" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,803,269</t>
         </is>
       </c>
       <c r="D1058" t="inlineStr">
@@ -59698,7 +59698,7 @@
       </c>
       <c r="C1059" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>4,922,749</t>
         </is>
       </c>
       <c r="D1059" t="inlineStr">
@@ -59754,7 +59754,7 @@
       </c>
       <c r="C1060" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1060" t="inlineStr">
@@ -59810,7 +59810,7 @@
       </c>
       <c r="C1061" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>30,790,513</t>
         </is>
       </c>
       <c r="D1061" t="inlineStr">
@@ -59866,7 +59866,7 @@
       </c>
       <c r="C1062" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>31,546,691</t>
         </is>
       </c>
       <c r="D1062" t="inlineStr">
@@ -59922,7 +59922,7 @@
       </c>
       <c r="C1063" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32,284,046</t>
         </is>
       </c>
       <c r="D1063" t="inlineStr">
@@ -59978,7 +59978,7 @@
       </c>
       <c r="C1064" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>32,981,641</t>
         </is>
       </c>
       <c r="D1064" t="inlineStr">
@@ -60034,7 +60034,7 @@
       </c>
       <c r="C1065" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1065" t="inlineStr">
@@ -60090,7 +60090,7 @@
       </c>
       <c r="C1066" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>17,835,893</t>
         </is>
       </c>
       <c r="D1066" t="inlineStr">
@@ -60146,7 +60146,7 @@
       </c>
       <c r="C1067" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>18,380,477</t>
         </is>
       </c>
       <c r="D1067" t="inlineStr">
@@ -60202,7 +60202,7 @@
       </c>
       <c r="C1068" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>18,927,715</t>
         </is>
       </c>
       <c r="D1068" t="inlineStr">
@@ -60258,7 +60258,7 @@
       </c>
       <c r="C1069" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>19,473,125</t>
         </is>
       </c>
       <c r="D1069" t="inlineStr">
@@ -60314,7 +60314,7 @@
       </c>
       <c r="C1070" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1070" t="inlineStr">
@@ -60370,7 +60370,7 @@
       </c>
       <c r="C1071" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>15,052,184</t>
         </is>
       </c>
       <c r="D1071" t="inlineStr">
@@ -60426,7 +60426,7 @@
       </c>
       <c r="C1072" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>15,354,608</t>
         </is>
       </c>
       <c r="D1072" t="inlineStr">
@@ -60482,7 +60482,7 @@
       </c>
       <c r="C1073" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>15,669,666</t>
         </is>
       </c>
       <c r="D1073" t="inlineStr">
@@ -60538,7 +60538,7 @@
       </c>
       <c r="C1074" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>15,993,524</t>
         </is>
       </c>
       <c r="D1074" t="inlineStr">
